--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -44,7 +44,7 @@
     <t>Send a HTTPS request to https://httpbin.org/get</t>
   </si>
   <si>
-    <t>{     "args": {         "email": "22f2001640@ds.study.iitm.ac.in"     },     "headers": {         "Accept": "*/*",         "Accept-Encoding": "gzip, deflate",         "Host": "httpbin.org",         "User-Agent": "HTTPie/3.2.4",         "X-Amzn-Trace-Id": "Root=1-678005bb-04a1e7e557d8057f2f022b1d"     },     "origin": "106.219.182.32",     "url": "https://httpbin.org/get?email=22f2001640%40ds.study.iitm.ac.in" }</t>
+    <t>{     "args": {         "email": "22f2003680@ds.study.iitm.ac.in"     },     "headers": {         "Accept": "*/*",         "Accept-Encoding": "gzip, deflate",         "Host": "httpbin.org",         "User-Agent": "HTTPie/3.2.4",         "X-Amzn-Trace-Id": "Root=1-678005bb-04a1e7e557d8057f2f022b1d"     },     "origin": "106.219.182.32",     "url": "https://httpbin.org/get?email=22f2001640%40ds.study.iitm.ac.in" }</t>
   </si>
   <si>
     <t>GA1.3</t>
@@ -128,7 +128,7 @@
     <t>Enter the raw Github URL of email.json so we can verify it</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/Telvinvarghese/test/main/email.json</t>
+    <t>https://raw.githubusercontent.com/SawhneySatvik/test/main/email.json</t>
   </si>
   <si>
     <t>GA1.14</t>
@@ -696,7 +696,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1097,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="29.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="31.5">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
